--- a/AmazinGantt.xlsx
+++ b/AmazinGantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jagjitsingh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53151F51-0E23-7845-BA22-F1BB3798FDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B57131-DB36-4C76-AD41-307BEFCB297E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="1580" windowWidth="36780" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Project Planner</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>Add Product Rating</t>
+  </si>
+  <si>
+    <t>UI Interactive Support</t>
+  </si>
+  <si>
+    <t>View all listed items</t>
+  </si>
+  <si>
+    <t>Biddable Items</t>
   </si>
 </sst>
 </file>
@@ -235,17 +244,20 @@
       <sz val="13"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="7"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1021,17 +1033,17 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.6640625" style="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="51.125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="8" max="27" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
@@ -1044,7 +1056,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
         <v>12</v>
       </c>
@@ -1102,7 +1114,7 @@
       <c r="AO2" s="24"/>
       <c r="AP2" s="24"/>
     </row>
-    <row r="3" spans="2:67" s="11" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1156,7 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -1332,7 +1344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
@@ -1352,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1392,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
@@ -1432,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1472,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1492,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
@@ -1512,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
@@ -1532,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
@@ -1552,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1566,13 +1578,13 @@
         <v>9</v>
       </c>
       <c r="F16" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1586,37 +1598,73 @@
         <v>9</v>
       </c>
       <c r="F17" s="21">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="21">
         <v>9</v>
       </c>
-      <c r="G17" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="6"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="21">
+        <v>7</v>
+      </c>
+      <c r="E18" s="21">
+        <v>9</v>
+      </c>
+      <c r="F18" s="21">
+        <v>7</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="21">
+        <v>5</v>
+      </c>
+      <c r="D19" s="21">
+        <v>2</v>
+      </c>
+      <c r="E19" s="21">
+        <v>5</v>
+      </c>
+      <c r="F19" s="21">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="21">
+        <v>11</v>
+      </c>
+      <c r="D20" s="21">
+        <v>7</v>
+      </c>
+      <c r="E20" s="21">
+        <v>11</v>
+      </c>
+      <c r="F20" s="21">
+        <v>10</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1624,7 +1672,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1632,7 +1680,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1640,7 +1688,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1648,7 +1696,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1656,7 +1704,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1664,7 +1712,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1672,7 +1720,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1680,7 +1728,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1688,7 +1736,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
